--- a/medicine/Autisme/As_We_See_It/As_We_See_It.xlsx
+++ b/medicine/Autisme/As_We_See_It/As_We_See_It.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As We See It, ou As We See It : Le Monde dans nos yeux au Québec, est une série télévisée américaine en huit épisodes d'environ 33 minutes créée par Jason Katims, basée sur la série israélienne On the Spectrum de Dana Idisis et Yuval Shafferman, et mise en ligne le 21 janvier 2022 sur Prime Video[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As We See It, ou As We See It : Le Monde dans nos yeux au Québec, est une série télévisée américaine en huit épisodes d'environ 33 minutes créée par Jason Katims, basée sur la série israélienne On the Spectrum de Dana Idisis et Yuval Shafferman, et mise en ligne le 21 janvier 2022 sur Prime Video.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois colocataires autistes, Jack, Harrison et Violet sous la supervision de leur éducatrice Mandy, s'efforcent d'obtenir et de conserver un emploi, de se faire des amis, de tomber amoureux et de naviguer dans un monde qui leur échappe…
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Rick Glassman (VF : Thibaut Lacour) : Jack Hoffman
@@ -554,7 +570,7 @@
 Omar Maskati : Joel, le petit-ami de Mandy
 Délé Ogundiran : Ewatomi Kokumo, l'infirmière de Lou et petite-amie de Jack
 Vella Lovell : Salena, la petite-amie de Van
- Source et légende : version française (VF) sur RS Doublage[2]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 20 octobre 2022, la série est annulée[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 20 octobre 2022, la série est annulée.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pilote (Pilot)
 Ne pas dire ça, ne pas faire ça (I Apologize for My Words and Actions)
@@ -652,6 +672,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
